--- a/dfpyme/Reporte de costos de 2025-02-13 al 2025-02-13.xlsx
+++ b/dfpyme/Reporte de costos de 2025-02-13 al 2025-02-13.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>PORKOS S.A.S</t>
   </si>
@@ -38,22 +38,31 @@
     <t>Fecha final</t>
   </si>
   <si>
+    <t>Fecha generacion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fecha </t>
   </si>
   <si>
-    <t xml:space="preserve">Nit  </t>
-  </si>
-  <si>
-    <t>Cliente</t>
+    <t>Documento</t>
   </si>
   <si>
     <t>Tipo documento</t>
   </si>
   <si>
-    <t>Documento</t>
-  </si>
-  <si>
-    <t>Costo</t>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Producto</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costo unidad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valor unidad  </t>
   </si>
   <si>
     <t xml:space="preserve">Base </t>
@@ -65,28 +74,22 @@
     <t xml:space="preserve">INC  </t>
   </si>
   <si>
-    <t xml:space="preserve">VALOR  </t>
-  </si>
-  <si>
-    <t>'222222222222</t>
-  </si>
-  <si>
-    <t>CONSUMIDOR FINAL</t>
+    <t xml:space="preserve">Total  </t>
   </si>
   <si>
     <t>FACTURA ELECTRÓNICA</t>
   </si>
   <si>
-    <t>TOTAL COSTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL IVA </t>
-  </si>
-  <si>
-    <t>TOTAL INC</t>
-  </si>
-  <si>
-    <t>TOTAL VENTA</t>
+    <t>ACOM CHIP DE PLATANO</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>IVA:</t>
+  </si>
+  <si>
+    <t>Impoconsumo:</t>
   </si>
 </sst>
 </file>
@@ -462,15 +465,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A8" sqref="A8:J8"/>
+      <selection activeCell="A8" sqref="A8:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +484,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +495,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -503,7 +506,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -514,12 +517,12 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -532,97 +535,108 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>17</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
+      <c r="B9">
+        <v>1935</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9">
-        <v>1935</v>
+        <v>20</v>
+      </c>
+      <c r="D9">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
       <c r="F9">
-        <v>2500</v>
+        <v>1</v>
       </c>
       <c r="G9">
+        <v>2500.0</v>
+      </c>
+      <c r="H9">
+        <v>6000.0</v>
+      </c>
+      <c r="I9">
         <v>5556.0</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.0</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>444.0</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>6000.0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>2500.0</v>
       </c>
       <c r="B12">
         <v>0.0</v>
       </c>
-      <c r="C12">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
         <v>444.0</v>
-      </c>
-      <c r="D12">
-        <v>6000</v>
       </c>
     </row>
   </sheetData>
